--- a/src/main/resources/DemoWebShopTestData.xlsx
+++ b/src/main/resources/DemoWebShopTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\demoWebShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92A161D-311D-4585-9BC1-4E4AEA91EBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5CAF3-A715-4A04-9AFE-AC62E3F841C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4550" yWindow="2330" windowWidth="14400" windowHeight="7360" xr2:uid="{5B74B86C-DA33-4F6C-961F-BEC08267CB78}"/>
   </bookViews>
@@ -388,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11A9A18-2A6A-4DCB-B485-2B759B4E470B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/src/main/resources/DemoWebShopTestData.xlsx
+++ b/src/main/resources/DemoWebShopTestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\demoWebShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5CAF3-A715-4A04-9AFE-AC62E3F841C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A85BDA-5385-4C26-9388-FBC4B6689EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4550" yWindow="2330" windowWidth="14400" windowHeight="7360" xr2:uid="{5B74B86C-DA33-4F6C-961F-BEC08267CB78}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{5B74B86C-DA33-4F6C-961F-BEC08267CB78}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,19 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Aleena</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>aleenamariya97@gmail.com</t>
+  </si>
+  <si>
+    <t>aleena97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11A9A18-2A6A-4DCB-B485-2B759B4E470B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -402,4 +430,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C582525-87E0-4535-82C4-F35ECB2EC6CE}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{FF7CB654-A9AB-4543-9C29-3E49E277A9FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F68AE-263A-4621-B8DE-C485BAD1FC77}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/DemoWebShopTestData.xlsx
+++ b/src/main/resources/DemoWebShopTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\demoWebShop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A85BDA-5385-4C26-9388-FBC4B6689EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FDCED-8ABB-41B2-A816-91D8CAA2B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{5B74B86C-DA33-4F6C-961F-BEC08267CB78}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5B74B86C-DA33-4F6C-961F-BEC08267CB78}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Demo Web Shop</t>
   </si>
@@ -48,10 +48,13 @@
     <t>James</t>
   </si>
   <si>
-    <t>aleenamariya97@gmail.com</t>
-  </si>
-  <si>
     <t>aleena97</t>
+  </si>
+  <si>
+    <t>aleena97@gmail.com</t>
+  </si>
+  <si>
+    <t>aleena@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C582525-87E0-4535-82C4-F35ECB2EC6CE}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -453,13 +456,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -472,26 +475,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F68AE-263A-4621-B8DE-C485BAD1FC77}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{443C2630-466A-4039-BE42-9E104F25C2E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>